--- a/natmiOut/OldD4/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H2">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I2">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J2">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.81616467224719</v>
+        <v>3.187172</v>
       </c>
       <c r="N2">
-        <v>2.81616467224719</v>
+        <v>9.561516000000001</v>
       </c>
       <c r="O2">
-        <v>0.1273652677638085</v>
+        <v>0.1363537060697748</v>
       </c>
       <c r="P2">
-        <v>0.1273652677638085</v>
+        <v>0.141928285537828</v>
       </c>
       <c r="Q2">
-        <v>3.4616379256425</v>
+        <v>5.050712530790667</v>
       </c>
       <c r="R2">
-        <v>3.4616379256425</v>
+        <v>45.45641277711601</v>
       </c>
       <c r="S2">
-        <v>0.09152660807560678</v>
+        <v>0.07060789477164242</v>
       </c>
       <c r="T2">
-        <v>0.09152660807560678</v>
+        <v>0.08082982158318186</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H3">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I3">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J3">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.57953860856126</v>
+        <v>8.001835333333334</v>
       </c>
       <c r="N3">
-        <v>7.57953860856126</v>
+        <v>24.005506</v>
       </c>
       <c r="O3">
-        <v>0.3427959926914366</v>
+        <v>0.3423348043532233</v>
       </c>
       <c r="P3">
-        <v>0.3427959926914366</v>
+        <v>0.3563305557453487</v>
       </c>
       <c r="Q3">
-        <v>9.316791224900438</v>
+        <v>12.68051112001178</v>
       </c>
       <c r="R3">
-        <v>9.316791224900438</v>
+        <v>114.124600080106</v>
       </c>
       <c r="S3">
-        <v>0.2463383858395423</v>
+        <v>0.1772708680912139</v>
       </c>
       <c r="T3">
-        <v>0.2463383858395423</v>
+        <v>0.2029344266112195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H4">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I4">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J4">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.71609596810006</v>
+        <v>4.084306000000001</v>
       </c>
       <c r="N4">
-        <v>3.71609596810006</v>
+        <v>12.252918</v>
       </c>
       <c r="O4">
-        <v>0.1680660093059818</v>
+        <v>0.1747349248245835</v>
       </c>
       <c r="P4">
-        <v>0.1680660093059818</v>
+        <v>0.1818786523575961</v>
       </c>
       <c r="Q4">
-        <v>4.567836130206673</v>
+        <v>6.472401079635334</v>
       </c>
       <c r="R4">
-        <v>4.567836130206673</v>
+        <v>58.25160971671801</v>
       </c>
       <c r="S4">
-        <v>0.1207747766298882</v>
+        <v>0.09048280050878578</v>
       </c>
       <c r="T4">
-        <v>0.1207747766298882</v>
+        <v>0.1035820235842682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H5">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I5">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J5">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.24631863169792</v>
+        <v>5.346736</v>
       </c>
       <c r="N5">
-        <v>5.24631863169792</v>
+        <v>16.040208</v>
       </c>
       <c r="O5">
-        <v>0.237272622544216</v>
+        <v>0.2287442500676723</v>
       </c>
       <c r="P5">
-        <v>0.237272622544216</v>
+        <v>0.2380960530851126</v>
       </c>
       <c r="Q5">
-        <v>6.448790343996016</v>
+        <v>8.472974321445333</v>
       </c>
       <c r="R5">
-        <v>6.448790343996016</v>
+        <v>76.256768893008</v>
       </c>
       <c r="S5">
-        <v>0.1705076957946518</v>
+        <v>0.1184503920277137</v>
       </c>
       <c r="T5">
-        <v>0.1705076957946518</v>
+        <v>0.1355984919961569</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H6">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I6">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J6">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.75281331509131</v>
+        <v>2.7542475</v>
       </c>
       <c r="N6">
-        <v>2.75281331509131</v>
+        <v>5.508495</v>
       </c>
       <c r="O6">
-        <v>0.1245001076945571</v>
+        <v>0.1178323146847462</v>
       </c>
       <c r="P6">
-        <v>0.1245001076945571</v>
+        <v>0.08176645327411448</v>
       </c>
       <c r="Q6">
-        <v>3.383766250476315</v>
+        <v>4.3646569313325</v>
       </c>
       <c r="R6">
-        <v>3.383766250476315</v>
+        <v>26.187941587995</v>
       </c>
       <c r="S6">
-        <v>0.08946766070842845</v>
+        <v>0.06101698234518226</v>
       </c>
       <c r="T6">
-        <v>0.08946766070842845</v>
+        <v>0.046566953194645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H7">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I7">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J7">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.81616467224719</v>
+        <v>3.187172</v>
       </c>
       <c r="N7">
-        <v>2.81616467224719</v>
+        <v>9.561516000000001</v>
       </c>
       <c r="O7">
-        <v>0.1273652677638085</v>
+        <v>0.1363537060697748</v>
       </c>
       <c r="P7">
-        <v>0.1273652677638085</v>
+        <v>0.141928285537828</v>
       </c>
       <c r="Q7">
-        <v>1.355457895679827</v>
+        <v>2.024069885305334</v>
       </c>
       <c r="R7">
-        <v>1.355457895679827</v>
+        <v>18.216628967748</v>
       </c>
       <c r="S7">
-        <v>0.03583865968820175</v>
+        <v>0.02829606963390502</v>
       </c>
       <c r="T7">
-        <v>0.03583865968820175</v>
+        <v>0.03239250040538533</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H8">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I8">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J8">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.57953860856126</v>
+        <v>8.001835333333334</v>
       </c>
       <c r="N8">
-        <v>7.57953860856126</v>
+        <v>24.005506</v>
       </c>
       <c r="O8">
-        <v>0.3427959926914366</v>
+        <v>0.3423348043532233</v>
       </c>
       <c r="P8">
-        <v>0.3427959926914366</v>
+        <v>0.3563305557453487</v>
       </c>
       <c r="Q8">
-        <v>3.648133773507782</v>
+        <v>5.08170689419089</v>
       </c>
       <c r="R8">
-        <v>3.648133773507782</v>
+        <v>45.735362047718</v>
       </c>
       <c r="S8">
-        <v>0.09645760685189431</v>
+        <v>0.07104118942781926</v>
       </c>
       <c r="T8">
-        <v>0.09645760685189431</v>
+        <v>0.08132584444103633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H9">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I9">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J9">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.71609596810006</v>
+        <v>4.084306000000001</v>
       </c>
       <c r="N9">
-        <v>3.71609596810006</v>
+        <v>12.252918</v>
       </c>
       <c r="O9">
-        <v>0.1680660093059818</v>
+        <v>0.1747349248245835</v>
       </c>
       <c r="P9">
-        <v>0.1680660093059818</v>
+        <v>0.1818786523575961</v>
       </c>
       <c r="Q9">
-        <v>1.78860692015068</v>
+        <v>2.593810681372667</v>
       </c>
       <c r="R9">
-        <v>1.78860692015068</v>
+        <v>23.344296132354</v>
       </c>
       <c r="S9">
-        <v>0.04729123267609358</v>
+        <v>0.03626092566770042</v>
       </c>
       <c r="T9">
-        <v>0.04729123267609358</v>
+        <v>0.04151043111596039</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H10">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I10">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J10">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.24631863169792</v>
+        <v>5.346736</v>
       </c>
       <c r="N10">
-        <v>5.24631863169792</v>
+        <v>16.040208</v>
       </c>
       <c r="O10">
-        <v>0.237272622544216</v>
+        <v>0.2287442500676723</v>
       </c>
       <c r="P10">
-        <v>0.237272622544216</v>
+        <v>0.2380960530851126</v>
       </c>
       <c r="Q10">
-        <v>2.52512364872211</v>
+        <v>3.395539155802667</v>
       </c>
       <c r="R10">
-        <v>2.52512364872211</v>
+        <v>30.559852402224</v>
       </c>
       <c r="S10">
-        <v>0.06676492674956418</v>
+        <v>0.04746892046306467</v>
       </c>
       <c r="T10">
-        <v>0.06676492674956418</v>
+        <v>0.05434101079185193</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6350676666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.905203</v>
+      </c>
+      <c r="I11">
+        <v>0.2075196226747617</v>
+      </c>
+      <c r="J11">
+        <v>0.2282314640991825</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.7542475</v>
+      </c>
+      <c r="N11">
+        <v>5.508495</v>
+      </c>
+      <c r="O11">
+        <v>0.1178323146847462</v>
+      </c>
+      <c r="P11">
+        <v>0.08176645327411448</v>
+      </c>
+      <c r="Q11">
+        <v>1.7491335332475</v>
+      </c>
+      <c r="R11">
+        <v>10.494801199485</v>
+      </c>
+      <c r="S11">
+        <v>0.02445251748227231</v>
+      </c>
+      <c r="T11">
+        <v>0.01866167734494855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.022067</v>
+      </c>
+      <c r="I12">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J12">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.187172</v>
+      </c>
+      <c r="N12">
+        <v>9.561516000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1363537060697748</v>
+      </c>
+      <c r="P12">
+        <v>0.141928285537828</v>
+      </c>
+      <c r="Q12">
+        <v>0.02344377484133334</v>
+      </c>
+      <c r="R12">
+        <v>0.210993973572</v>
+      </c>
+      <c r="S12">
+        <v>0.0003277390223568733</v>
+      </c>
+      <c r="T12">
+        <v>0.000375185902208656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.022067</v>
+      </c>
+      <c r="I13">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J13">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.001835333333334</v>
+      </c>
+      <c r="N13">
+        <v>24.005506</v>
+      </c>
+      <c r="O13">
+        <v>0.3423348043532233</v>
+      </c>
+      <c r="P13">
+        <v>0.3563305557453487</v>
+      </c>
+      <c r="Q13">
+        <v>0.05885883343355556</v>
+      </c>
+      <c r="R13">
+        <v>0.529729500902</v>
+      </c>
+      <c r="S13">
+        <v>0.0008228340639310811</v>
+      </c>
+      <c r="T13">
+        <v>0.0009419560064099986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.022067</v>
+      </c>
+      <c r="I14">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J14">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.084306000000001</v>
+      </c>
+      <c r="N14">
+        <v>12.252918</v>
+      </c>
+      <c r="O14">
+        <v>0.1747349248245835</v>
+      </c>
+      <c r="P14">
+        <v>0.1818786523575961</v>
+      </c>
+      <c r="Q14">
+        <v>0.03004279350066667</v>
+      </c>
+      <c r="R14">
+        <v>0.270385141506</v>
+      </c>
+      <c r="S14">
+        <v>0.0004199919098957671</v>
+      </c>
+      <c r="T14">
+        <v>0.0004807942688710326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.022067</v>
+      </c>
+      <c r="I15">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J15">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.346736</v>
+      </c>
+      <c r="N15">
+        <v>16.040208</v>
+      </c>
+      <c r="O15">
+        <v>0.2287442500676723</v>
+      </c>
+      <c r="P15">
+        <v>0.2380960530851126</v>
+      </c>
+      <c r="Q15">
+        <v>0.03932880777066666</v>
+      </c>
+      <c r="R15">
+        <v>0.353959269936</v>
+      </c>
+      <c r="S15">
+        <v>0.0005498084287388</v>
+      </c>
+      <c r="T15">
+        <v>0.0006294043653845793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.022067</v>
+      </c>
+      <c r="I16">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J16">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.7542475</v>
+      </c>
+      <c r="N16">
+        <v>5.508495</v>
+      </c>
+      <c r="O16">
+        <v>0.1178323146847462</v>
+      </c>
+      <c r="P16">
+        <v>0.08176645327411448</v>
+      </c>
+      <c r="Q16">
+        <v>0.0202593265275</v>
+      </c>
+      <c r="R16">
+        <v>0.121555959165</v>
+      </c>
+      <c r="S16">
+        <v>0.0002832211072947623</v>
+      </c>
+      <c r="T16">
+        <v>0.0002161487431895601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.833154</v>
+      </c>
+      <c r="H17">
+        <v>1.666308</v>
+      </c>
+      <c r="I17">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J17">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.187172</v>
+      </c>
+      <c r="N17">
+        <v>9.561516000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1363537060697748</v>
+      </c>
+      <c r="P17">
+        <v>0.141928285537828</v>
+      </c>
+      <c r="Q17">
+        <v>2.655405100488</v>
+      </c>
+      <c r="R17">
+        <v>15.932430602928</v>
+      </c>
+      <c r="S17">
+        <v>0.03712200264187044</v>
+      </c>
+      <c r="T17">
+        <v>0.02833077764705222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.481313436333332</v>
-      </c>
-      <c r="H11">
-        <v>0.481313436333332</v>
-      </c>
-      <c r="I11">
-        <v>0.2813848729518825</v>
-      </c>
-      <c r="J11">
-        <v>0.2813848729518825</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.75281331509131</v>
-      </c>
-      <c r="N11">
-        <v>2.75281331509131</v>
-      </c>
-      <c r="O11">
-        <v>0.1245001076945571</v>
-      </c>
-      <c r="P11">
-        <v>0.1245001076945571</v>
-      </c>
-      <c r="Q11">
-        <v>1.32496603627075</v>
-      </c>
-      <c r="R11">
-        <v>1.32496603627075</v>
-      </c>
-      <c r="S11">
-        <v>0.03503244698612863</v>
-      </c>
-      <c r="T11">
-        <v>0.03503244698612863</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.833154</v>
+      </c>
+      <c r="H18">
+        <v>1.666308</v>
+      </c>
+      <c r="I18">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J18">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.001835333333334</v>
+      </c>
+      <c r="N18">
+        <v>24.005506</v>
+      </c>
+      <c r="O18">
+        <v>0.3423348043532233</v>
+      </c>
+      <c r="P18">
+        <v>0.3563305557453487</v>
+      </c>
+      <c r="Q18">
+        <v>6.666761115308001</v>
+      </c>
+      <c r="R18">
+        <v>40.000566691848</v>
+      </c>
+      <c r="S18">
+        <v>0.0931999127702591</v>
+      </c>
+      <c r="T18">
+        <v>0.07112832868668292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.833154</v>
+      </c>
+      <c r="H19">
+        <v>1.666308</v>
+      </c>
+      <c r="I19">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J19">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.084306000000001</v>
+      </c>
+      <c r="N19">
+        <v>12.252918</v>
+      </c>
+      <c r="O19">
+        <v>0.1747349248245835</v>
+      </c>
+      <c r="P19">
+        <v>0.1818786523575961</v>
+      </c>
+      <c r="Q19">
+        <v>3.402855881124</v>
+      </c>
+      <c r="R19">
+        <v>20.417135286744</v>
+      </c>
+      <c r="S19">
+        <v>0.04757120673820155</v>
+      </c>
+      <c r="T19">
+        <v>0.03630540338849652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.833154</v>
+      </c>
+      <c r="H20">
+        <v>1.666308</v>
+      </c>
+      <c r="I20">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J20">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.346736</v>
+      </c>
+      <c r="N20">
+        <v>16.040208</v>
+      </c>
+      <c r="O20">
+        <v>0.2287442500676723</v>
+      </c>
+      <c r="P20">
+        <v>0.2380960530851126</v>
+      </c>
+      <c r="Q20">
+        <v>4.454654485343999</v>
+      </c>
+      <c r="R20">
+        <v>26.727926912064</v>
+      </c>
+      <c r="S20">
+        <v>0.0622751291481551</v>
+      </c>
+      <c r="T20">
+        <v>0.0475271459317192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.833154</v>
+      </c>
+      <c r="H21">
+        <v>1.666308</v>
+      </c>
+      <c r="I21">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J21">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.7542475</v>
+      </c>
+      <c r="N21">
+        <v>5.508495</v>
+      </c>
+      <c r="O21">
+        <v>0.1178323146847462</v>
+      </c>
+      <c r="P21">
+        <v>0.08176645327411448</v>
+      </c>
+      <c r="Q21">
+        <v>2.294712321615</v>
+      </c>
+      <c r="R21">
+        <v>9.17884928646</v>
+      </c>
+      <c r="S21">
+        <v>0.03207959374999688</v>
+      </c>
+      <c r="T21">
+        <v>0.01632167399133138</v>
       </c>
     </row>
   </sheetData>
